--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4.077011333333332</v>
+      </c>
+      <c r="H2">
+        <v>12.231034</v>
+      </c>
+      <c r="I2">
+        <v>0.9715624748044627</v>
+      </c>
+      <c r="J2">
+        <v>0.9715624748044628</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>3.119324666666667</v>
-      </c>
-      <c r="H2">
-        <v>9.357974</v>
-      </c>
-      <c r="I2">
-        <v>0.9631533634040845</v>
-      </c>
-      <c r="J2">
-        <v>0.9631533634040845</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N2">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q2">
-        <v>1.519623721686889</v>
+        <v>0.22835340478</v>
       </c>
       <c r="R2">
-        <v>13.676613495182</v>
+        <v>2.05518064302</v>
       </c>
       <c r="S2">
-        <v>0.1843917112840708</v>
+        <v>0.02633466491696459</v>
       </c>
       <c r="T2">
-        <v>0.1843917112840708</v>
+        <v>0.0263346649169646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.119324666666667</v>
+        <v>4.077011333333332</v>
       </c>
       <c r="H3">
-        <v>9.357974</v>
+        <v>12.231034</v>
       </c>
       <c r="I3">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044627</v>
       </c>
       <c r="J3">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.864751</v>
       </c>
       <c r="N3">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O3">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P3">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q3">
-        <v>5.816763791491334</v>
+        <v>7.602610960844665</v>
       </c>
       <c r="R3">
-        <v>52.350874123422</v>
+        <v>68.42349864760199</v>
       </c>
       <c r="S3">
-        <v>0.7058082960548198</v>
+        <v>0.8767647337720876</v>
       </c>
       <c r="T3">
-        <v>0.7058082960548199</v>
+        <v>0.8767647337720879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.119324666666667</v>
+        <v>4.077011333333332</v>
       </c>
       <c r="H4">
-        <v>9.357974</v>
+        <v>12.231034</v>
       </c>
       <c r="I4">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044627</v>
       </c>
       <c r="J4">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044628</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N4">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O4">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P4">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q4">
-        <v>0.6012290340022224</v>
+        <v>0.5936576972579999</v>
       </c>
       <c r="R4">
-        <v>5.411061306020001</v>
+        <v>5.342919275321999</v>
       </c>
       <c r="S4">
-        <v>0.07295335606519379</v>
+        <v>0.0684630761154103</v>
       </c>
       <c r="T4">
-        <v>0.07295335606519381</v>
+        <v>0.0684630761154103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.358001</v>
       </c>
       <c r="I5">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="J5">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N5">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q5">
-        <v>0.05813510616588889</v>
+        <v>0.006683878670000001</v>
       </c>
       <c r="R5">
-        <v>0.523215955493</v>
+        <v>0.06015490803000001</v>
       </c>
       <c r="S5">
-        <v>0.00705413554594281</v>
+        <v>0.0007708127027476372</v>
       </c>
       <c r="T5">
-        <v>0.007054135545942813</v>
+        <v>0.0007708127027476373</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.358001</v>
       </c>
       <c r="I6">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="J6">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>1.864751</v>
       </c>
       <c r="N6">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O6">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P6">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q6">
         <v>0.2225275742503333</v>
@@ -818,10 +818,10 @@
         <v>2.002748168253</v>
       </c>
       <c r="S6">
-        <v>0.02700157916616584</v>
+        <v>0.02566280589647132</v>
       </c>
       <c r="T6">
-        <v>0.02700157916616584</v>
+        <v>0.02566280589647133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.358001</v>
       </c>
       <c r="I7">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="J7">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N7">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O7">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P7">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q7">
-        <v>0.02300076869222223</v>
+        <v>0.017376294537</v>
       </c>
       <c r="R7">
-        <v>0.20700691823</v>
+        <v>0.156386650833</v>
       </c>
       <c r="S7">
-        <v>0.002790921883806842</v>
+        <v>0.002003906596318268</v>
       </c>
       <c r="T7">
-        <v>0.002790921883806842</v>
+        <v>0.002003906596318268</v>
       </c>
     </row>
   </sheetData>
